--- a/TTB_PCB_PQM/userpasslist.xlsx
+++ b/TTB_PCB_PQM/userpasslist.xlsx
@@ -597,7 +597,7 @@
   <dimension ref="A3:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TTB_PCB_PQM/userpasslist.xlsx
+++ b/TTB_PCB_PQM/userpasslist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>TTB</t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>"Server=192.168.193.5;Port=5432;User Id=pqm;Password=dbuser;Database=pqmdb; CommandTimeout=100; Timeout=100;";</t>
+  </si>
+  <si>
+    <t>//ERP nidec connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //b4+ZqSnqCtCIesf1t8pV0OKl4Q3rvy0ArDpRgTNwnCbNkXx2FAoJXEyO0y1yL/95eBZzv6k+TdokLWkPGm8rbZu42k801TZiSqE6V7C9hswOcWHEt3gmv3g1tmzt+/loGrvrqIlV046OBJrMJJ26Bg==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //PQM Nidec connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //b4+ZqSnqCtCIesf1t8pV0OKl4Q3rvy0ArDpRgTNwnCbNkXx2FAoJXEyO0y1yL/95eBZzv6k+TdokLWkPGm8rbZHo9J457a8GJXsFuyHD7Ra5zVG2AoF1sdUP6B0kggbL3cVOQ/a3VpaAjnH8v5oPkA==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //pqm local connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //9hjG0KiHa226YXSkj3T6kuFdTTP6wctzKNbXuuw3DXMEufU2GBMiq0GpO6sE4LxyrrIGzQMNovF9C29hGWbjUH7apSlbiNY5+v1dxdcS9tkOcWHEt3gmv3g1tmzt+/loGrvrqIlV046OBJrMJJ26Bg==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //ERP local connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //9hjG0KiHa226YXSkj3T6kuFdTTP6wctzKNbXuuw3DXMEufU2GBMiq0GpO6sE4LxyrrIGzQMNovF9C29hGWbjUBGh/LRCigCjyPJCQrT/wi0OcWHEt3gmv3g1tmzt+/loGrvrqIlV046OBJrMJJ26Bg==</t>
   </si>
 </sst>
 </file>
@@ -302,6 +326,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -311,8 +337,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F20"/>
+  <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,11 +765,11 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -773,7 +797,7 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -781,13 +805,53 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
